--- a/public/templates/opo.xlsx
+++ b/public/templates/opo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Soft\openserv\OpenServer\domains\telegram.gaz\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B285FE76-13E1-482F-916A-B005E4FB369A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E993EA61-E5FA-4C34-B542-B89159ACF1E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2745" yWindow="2295" windowWidth="13050" windowHeight="11835" xr2:uid="{77695A3C-5086-43E9-B126-A885D32BCDA9}"/>
+    <workbookView xWindow="9750" yWindow="1245" windowWidth="13050" windowHeight="11835" xr2:uid="{77695A3C-5086-43E9-B126-A885D32BCDA9}"/>
   </bookViews>
   <sheets>
     <sheet name="OPO" sheetId="1" r:id="rId1"/>
@@ -466,7 +466,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -556,11 +556,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -568,9 +563,57 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -598,12 +641,6 @@
     <xf numFmtId="9" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -616,59 +653,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1127,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB0B4622-FC68-489E-B7E8-98F35F2BF832}">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="83" zoomScaleNormal="100" zoomScalePageLayoutView="83" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:G12"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B11" zoomScale="83" zoomScaleNormal="100" zoomScalePageLayoutView="83" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1252,20 +1253,20 @@
       <c r="I10" s="22"/>
     </row>
     <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
     </row>
     <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C12" s="80" t="s">
+      <c r="C12" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1286,62 +1287,62 @@
     </row>
     <row r="15" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="38"/>
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="72"/>
+      <c r="C15" s="60"/>
       <c r="D15" s="20"/>
       <c r="F15" s="38"/>
       <c r="G15" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="63"/>
+      <c r="H15" s="75"/>
       <c r="I15" s="14"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="44"/>
+      <c r="B16" s="41"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="16"/>
       <c r="F16" s="38"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="64"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="77"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="38"/>
-      <c r="B17" s="54" t="s">
+      <c r="B17" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="55"/>
+      <c r="C17" s="68"/>
       <c r="D17" s="14"/>
       <c r="F17" s="38"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="64"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="77"/>
       <c r="I17" s="14"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="14"/>
-      <c r="C18" s="70" t="s">
+      <c r="C18" s="58" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="15"/>
       <c r="F18" s="38"/>
-      <c r="G18" s="76" t="s">
+      <c r="G18" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="65"/>
+      <c r="H18" s="50"/>
       <c r="I18" s="14"/>
     </row>
     <row r="19" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="14"/>
-      <c r="C19" s="70"/>
+      <c r="C19" s="58"/>
       <c r="D19" s="12"/>
       <c r="F19" s="38"/>
-      <c r="G19" s="77" t="s">
+      <c r="G19" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="67"/>
+      <c r="H19" s="53"/>
       <c r="I19" s="14"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1351,8 +1352,8 @@
       </c>
       <c r="D20" s="12"/>
       <c r="F20" s="38"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="68"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="55"/>
       <c r="I20" s="14"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1360,8 +1361,8 @@
       <c r="C21" s="36"/>
       <c r="D21" s="12"/>
       <c r="F21" s="39"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="69"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="57"/>
       <c r="I21" s="14"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1404,10 +1405,10 @@
       <c r="F23" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="46" t="s">
+      <c r="G23" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="46" t="s">
+      <c r="H23" s="43" t="s">
         <v>13</v>
       </c>
       <c r="I23" s="11"/>
@@ -1422,10 +1423,10 @@
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="45" t="s">
+      <c r="C25" s="42" t="s">
         <v>36</v>
       </c>
       <c r="D25" s="6"/>
@@ -1435,8 +1436,8 @@
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="49"/>
-      <c r="C26" s="45" t="s">
+      <c r="B26" s="62"/>
+      <c r="C26" s="42" t="s">
         <v>37</v>
       </c>
       <c r="D26" s="6"/>
@@ -1446,8 +1447,8 @@
       <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="50"/>
-      <c r="C27" s="45" t="s">
+      <c r="B27" s="63"/>
+      <c r="C27" s="42" t="s">
         <v>38</v>
       </c>
       <c r="D27" s="5"/>
@@ -1457,134 +1458,134 @@
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="66"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="33"/>
       <c r="C29" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="73"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="43" t="s">
+      <c r="D29" s="44"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="78" t="s">
         <v>32</v>
       </c>
+      <c r="H29" s="79"/>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="33"/>
       <c r="C30" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="56">
+      <c r="D30" s="69">
         <v>0</v>
       </c>
-      <c r="E30" s="57"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="52" t="s">
+      <c r="E30" s="45"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="H30" s="53"/>
+      <c r="H30" s="66"/>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="33"/>
       <c r="C31" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D31" s="73"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="43" t="s">
+      <c r="D31" s="44"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="78" t="s">
         <v>32</v>
       </c>
+      <c r="H31" s="79"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="51"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="59" t="s">
+      <c r="B33" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="59"/>
+      <c r="C33" s="70"/>
       <c r="F33" s="21"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="60" t="s">
+      <c r="B34" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
       <c r="G34" s="47"/>
       <c r="H34" s="47"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="60" t="s">
+      <c r="B35" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
       <c r="G35" s="47"/>
       <c r="H35" s="47"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="61" t="s">
+      <c r="B36" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="72"/>
       <c r="G36" s="47"/>
       <c r="H36" s="47"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="61"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
+      <c r="B37" s="72"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
       <c r="G37" s="47"/>
       <c r="H37" s="47"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="60" t="s">
+      <c r="B38" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="60"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
       <c r="G38" s="47"/>
       <c r="H38" s="47"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="60" t="s">
+      <c r="B39" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="60"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="71"/>
+      <c r="E39" s="71"/>
+      <c r="F39" s="71"/>
       <c r="G39" s="47"/>
       <c r="H39" s="47"/>
     </row>
@@ -1781,16 +1782,7 @@
       <c r="H59" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="B2:H7"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="G19:H21"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B15:C15"/>
+  <mergeCells count="26">
     <mergeCell ref="A50:H59"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B32:H32"/>
@@ -1804,8 +1796,19 @@
     <mergeCell ref="B36:F37"/>
     <mergeCell ref="B38:F38"/>
     <mergeCell ref="B39:F39"/>
+    <mergeCell ref="G15:H17"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="B2:H7"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="C11:G11"/>
-    <mergeCell ref="G15:H17"/>
   </mergeCells>
   <pageMargins left="0.59375" right="0.11811023622047245" top="0.58333333333333337" bottom="0.28125" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/public/templates/opo.xlsx
+++ b/public/templates/opo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Soft\openserv\OpenServer\domains\telegram.gaz\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E993EA61-E5FA-4C34-B542-B89159ACF1E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1245151F-DF6D-48A4-9F1D-632175C6D977}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9750" yWindow="1245" windowWidth="13050" windowHeight="11835" xr2:uid="{77695A3C-5086-43E9-B126-A885D32BCDA9}"/>
+    <workbookView xWindow="14805" yWindow="2505" windowWidth="13050" windowHeight="11835" xr2:uid="{77695A3C-5086-43E9-B126-A885D32BCDA9}"/>
   </bookViews>
   <sheets>
     <sheet name="OPO" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,6 @@
     <t>Wire instructions:</t>
   </si>
   <si>
-    <t xml:space="preserve">Total PO amount </t>
-  </si>
-  <si>
     <t>VAT</t>
   </si>
   <si>
@@ -145,6 +142,9 @@
   </si>
   <si>
     <t>Bank:  {baddress}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total PO Amount </t>
   </si>
 </sst>
 </file>
@@ -154,7 +154,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$USD]\ #,##0.00"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,38 +170,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -215,51 +184,12 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -270,8 +200,59 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,6 +262,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF536AC2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,217 +453,264 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF536AC2"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -694,7 +728,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>201490</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>85478</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6134100" cy="1223772"/>
@@ -739,7 +773,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>439185</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>56612</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1445133" cy="1509141"/>
@@ -1126,10 +1160,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB0B4622-FC68-489E-B7E8-98F35F2BF832}">
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B11" zoomScale="83" zoomScaleNormal="100" zoomScalePageLayoutView="83" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31:H31"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A9" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1143,672 +1177,721 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="21"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="21"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="21"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="21"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="21"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="21"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="21"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-    </row>
-    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-    </row>
-    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C12" s="48" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="33"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="33"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="33"/>
+      <c r="C12" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="33"/>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="33"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13"/>
+      <c r="B14" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="81"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="87" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="88"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="43"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="46"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13"/>
+      <c r="B18" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="83"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13"/>
+      <c r="B19" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="92"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="26"/>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="13"/>
+      <c r="B22" s="95" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="96"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="13"/>
+      <c r="B23" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="97"/>
+      <c r="B24" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="74" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="14"/>
-    </row>
-    <row r="15" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="38"/>
-      <c r="B15" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="20"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="75"/>
-      <c r="I15" s="14"/>
-    </row>
-    <row r="16" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="41"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="14"/>
-    </row>
-    <row r="17" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="38"/>
-      <c r="B17" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="68"/>
-      <c r="D17" s="14"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="14"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="14"/>
-      <c r="C18" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="15"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="49" t="s">
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+    </row>
+    <row r="26" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="56"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="18"/>
+      <c r="C27" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="56"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+    </row>
+    <row r="28" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="19"/>
+      <c r="C28" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="56"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+    </row>
+    <row r="29" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="60"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+    </row>
+    <row r="30" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="12"/>
+      <c r="C30" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="61"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="50"/>
-      <c r="I18" s="14"/>
-    </row>
-    <row r="19" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="14"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="12"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" s="53"/>
-      <c r="I19" s="14"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="14"/>
-      <c r="C20" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="14"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="35"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="12"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="14"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" s="28" t="s">
+      <c r="H30" s="24"/>
+    </row>
+    <row r="31" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="12"/>
+      <c r="C31" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="84"/>
+      <c r="E31" s="86">
+        <v>0</v>
+      </c>
+      <c r="F31" s="85"/>
+      <c r="G31" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31" s="22"/>
+    </row>
+    <row r="32" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="12"/>
+      <c r="C32" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="61"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" s="24"/>
+    </row>
+    <row r="33" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+    </row>
+    <row r="34" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="64"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="65"/>
+    </row>
+    <row r="35" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B35" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="67"/>
+    </row>
+    <row r="36" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" s="7" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" s="11"/>
-    </row>
-    <row r="24" spans="1:9" s="7" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="61" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="62"/>
-      <c r="C26" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="63"/>
-      <c r="C27" s="42" t="s">
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-    </row>
-    <row r="29" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="33"/>
-      <c r="C29" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="44"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="78" t="s">
-        <v>32</v>
-      </c>
-      <c r="H29" s="79"/>
-    </row>
-    <row r="30" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="33"/>
-      <c r="C30" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="69">
-        <v>0</v>
-      </c>
-      <c r="E30" s="45"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="65" t="s">
-        <v>35</v>
-      </c>
-      <c r="H30" s="66"/>
-    </row>
-    <row r="31" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="33"/>
-      <c r="C31" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="44"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="78" t="s">
-        <v>32</v>
-      </c>
-      <c r="H31" s="79"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="64"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="64"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="70"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="71" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="71" t="s">
+      <c r="C37" s="68"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="68"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="67"/>
+    </row>
+    <row r="39" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="71"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="72" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="72"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="47"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="72"/>
-      <c r="C37" s="72"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="71" t="s">
+      <c r="C39" s="66"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="67"/>
+    </row>
+    <row r="40" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="71"/>
-      <c r="D38" s="71"/>
-      <c r="E38" s="71"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="71" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="71"/>
-      <c r="D39" s="71"/>
-      <c r="E39" s="71"/>
-      <c r="F39" s="71"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="47"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F40" s="21"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="47"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D41" s="2"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="47"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="21"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="47"/>
-      <c r="H43" s="47"/>
-      <c r="I43" s="21"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="21"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="67"/>
+    </row>
+    <row r="41" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="67"/>
+    </row>
+    <row r="42" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="67"/>
+    </row>
+    <row r="43" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B43" s="65"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="10"/>
+    </row>
+    <row r="44" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B44" s="65"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="67"/>
+      <c r="H44" s="67"/>
+      <c r="I44" s="10"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="21"/>
+      <c r="B45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="47"/>
-      <c r="B50" s="47"/>
-      <c r="C50" s="47"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="47"/>
-      <c r="H50" s="47"/>
-      <c r="I50" s="21"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="47"/>
-      <c r="B51" s="47"/>
-      <c r="C51" s="47"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="47"/>
-      <c r="H51" s="47"/>
-      <c r="I51" s="21"/>
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="10"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="47"/>
-      <c r="B52" s="47"/>
-      <c r="C52" s="47"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="47"/>
-      <c r="H52" s="47"/>
-      <c r="I52" s="21"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="10"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="47"/>
-      <c r="B53" s="47"/>
-      <c r="C53" s="47"/>
-      <c r="D53" s="47"/>
-      <c r="E53" s="47"/>
-      <c r="F53" s="47"/>
-      <c r="G53" s="47"/>
-      <c r="H53" s="47"/>
-      <c r="I53" s="21"/>
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="10"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="47"/>
-      <c r="B54" s="47"/>
-      <c r="C54" s="47"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="47"/>
-      <c r="H54" s="47"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="10"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="47"/>
-      <c r="B55" s="47"/>
-      <c r="C55" s="47"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="47"/>
-      <c r="F55" s="47"/>
-      <c r="G55" s="47"/>
-      <c r="H55" s="47"/>
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="47"/>
-      <c r="B56" s="47"/>
-      <c r="C56" s="47"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="47"/>
-      <c r="F56" s="47"/>
-      <c r="G56" s="47"/>
-      <c r="H56" s="47"/>
+      <c r="A56" s="16"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="47"/>
-      <c r="B57" s="47"/>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="47"/>
-      <c r="H57" s="47"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="47"/>
-      <c r="B58" s="47"/>
-      <c r="C58" s="47"/>
-      <c r="D58" s="47"/>
-      <c r="E58" s="47"/>
-      <c r="F58" s="47"/>
-      <c r="G58" s="47"/>
-      <c r="H58" s="47"/>
+      <c r="A58" s="16"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="47"/>
-      <c r="B59" s="47"/>
-      <c r="C59" s="47"/>
-      <c r="D59" s="47"/>
-      <c r="E59" s="47"/>
-      <c r="F59" s="47"/>
-      <c r="G59" s="47"/>
-      <c r="H59" s="47"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="16"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="A50:H59"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="B17:C17"/>
+  <mergeCells count="27">
+    <mergeCell ref="B19:C21"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="G17:H19"/>
+    <mergeCell ref="G15:H16"/>
+    <mergeCell ref="B15:C16"/>
     <mergeCell ref="D30:F30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="G34:H43"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B36:F37"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="G15:H17"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
     <mergeCell ref="B2:H7"/>
     <mergeCell ref="C12:G12"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="G19:H21"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="G20:H22"/>
     <mergeCell ref="C11:G11"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="A51:H60"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="G35:H44"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B37:F38"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G32:H32"/>
   </mergeCells>
   <pageMargins left="0.59375" right="0.11811023622047245" top="0.58333333333333337" bottom="0.28125" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/public/templates/opo.xlsx
+++ b/public/templates/opo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Soft\openserv\OpenServer\domains\telegram.gaz\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1245151F-DF6D-48A4-9F1D-632175C6D977}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122458BF-05CA-46AB-8562-EEE878531473}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14805" yWindow="2505" windowWidth="13050" windowHeight="11835" xr2:uid="{77695A3C-5086-43E9-B126-A885D32BCDA9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{77695A3C-5086-43E9-B126-A885D32BCDA9}"/>
   </bookViews>
   <sheets>
     <sheet name="OPO" sheetId="1" r:id="rId1"/>
@@ -154,7 +154,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$USD]\ #,##0.00"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,15 +192,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -218,25 +209,11 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -245,8 +222,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -453,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -485,12 +470,103 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -503,203 +579,106 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -822,8 +801,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1125075</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>164292</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -1163,17 +1142,17 @@
   <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A9" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" customWidth="1"/>
+    <col min="2" max="2" width="3" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" customWidth="1"/>
     <col min="4" max="6" width="5.85546875" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1189,68 +1168,68 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
       <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
       <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
       <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
       <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
       <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1277,427 +1256,427 @@
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
       <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="33"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="33"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="33"/>
-      <c r="C12" s="35" t="s">
+      <c r="B12" s="17"/>
+      <c r="C12" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="33"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="33"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
-      <c r="B14" s="80" t="s">
+      <c r="B14" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="81"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="79" t="s">
+      <c r="C14" s="67"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="88" t="s">
         <v>29</v>
       </c>
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
-      <c r="B15" s="87" t="s">
+      <c r="B15" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="88"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="42" t="s">
+      <c r="C15" s="52"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="43"/>
+      <c r="H15" s="87"/>
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13"/>
-      <c r="B16" s="89"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="49"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="85"/>
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="31"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="9"/>
       <c r="E17" s="8"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="45" t="s">
+      <c r="F17" s="23"/>
+      <c r="G17" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="46"/>
+      <c r="H17" s="83"/>
       <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
-      <c r="B18" s="82" t="s">
+      <c r="B18" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="83"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="46"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="83"/>
       <c r="I18" s="7"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13"/>
-      <c r="B19" s="91" t="s">
+      <c r="B19" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="92"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="49"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="85"/>
       <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
-      <c r="B20" s="93"/>
-      <c r="C20" s="94"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="25" t="s">
+      <c r="B20" s="78"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="26"/>
+      <c r="H20" s="52"/>
       <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
-      <c r="B21" s="95"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="28"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="54"/>
       <c r="I21" s="7"/>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
-      <c r="B22" s="95" t="s">
+      <c r="B22" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="96"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="30"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="56"/>
       <c r="I22" s="7"/>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
-      <c r="B23" s="70" t="s">
+      <c r="B23" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="71" t="s">
+      <c r="C23" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="71" t="s">
+      <c r="D23" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="71" t="s">
+      <c r="E23" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="F23" s="70" t="s">
+      <c r="F23" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="G23" s="70" t="s">
+      <c r="G23" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="72" t="s">
+      <c r="H23" s="73" t="s">
         <v>24</v>
       </c>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="97"/>
-      <c r="B24" s="73" t="s">
+      <c r="A24" s="44"/>
+      <c r="B24" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="74" t="s">
+      <c r="C24" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="75" t="s">
+      <c r="D24" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="76" t="s">
+      <c r="E24" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="77" t="s">
+      <c r="F24" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="78" t="s">
+      <c r="G24" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="78" t="s">
+      <c r="H24" s="40" t="s">
         <v>12</v>
       </c>
       <c r="I24" s="6"/>
     </row>
     <row r="25" spans="1:9" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
       <c r="D25" s="5"/>
       <c r="E25" s="4"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
     </row>
     <row r="26" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="55" t="s">
+      <c r="C26" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="56"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="18"/>
-      <c r="C27" s="58" t="s">
+      <c r="B27" s="59"/>
+      <c r="C27" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="56"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="19"/>
-      <c r="C28" s="59" t="s">
+      <c r="B28" s="60"/>
+      <c r="C28" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="56"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="60"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="12"/>
       <c r="C30" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="61"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="23" t="s">
+      <c r="D30" s="45"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="H30" s="24"/>
+      <c r="H30" s="93"/>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="12"/>
       <c r="C31" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D31" s="84"/>
-      <c r="E31" s="86">
+      <c r="D31" s="41"/>
+      <c r="E31" s="43">
         <v>0</v>
       </c>
-      <c r="F31" s="85"/>
-      <c r="G31" s="21" t="s">
+      <c r="F31" s="42"/>
+      <c r="G31" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="H31" s="22"/>
+      <c r="H31" s="95"/>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="12"/>
       <c r="C32" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="61"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="23" t="s">
+      <c r="D32" s="45"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="H32" s="24"/>
+      <c r="H32" s="93"/>
     </row>
     <row r="33" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
     </row>
     <row r="34" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="64" t="s">
+      <c r="B34" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C34" s="64"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="65"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
     </row>
     <row r="35" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="66" t="s">
+      <c r="B35" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="66"/>
-      <c r="D35" s="66"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="67"/>
-      <c r="H35" s="67"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
     </row>
     <row r="36" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="66" t="s">
+      <c r="B36" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="66"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="67"/>
-      <c r="H36" s="67"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="63"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="68" t="s">
+      <c r="B37" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="68"/>
-      <c r="D37" s="68"/>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="67"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="63"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="68"/>
-      <c r="C38" s="68"/>
-      <c r="D38" s="68"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="68"/>
-      <c r="G38" s="67"/>
-      <c r="H38" s="67"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="63"/>
     </row>
     <row r="39" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="66" t="s">
+      <c r="B39" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="66"/>
-      <c r="D39" s="66"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="67"/>
-      <c r="H39" s="67"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="63"/>
+      <c r="H39" s="63"/>
     </row>
     <row r="40" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="66" t="s">
+      <c r="B40" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="66"/>
-      <c r="D40" s="66"/>
-      <c r="E40" s="66"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="67"/>
-      <c r="H40" s="67"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="63"/>
+      <c r="H40" s="63"/>
     </row>
     <row r="41" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="67"/>
-      <c r="H41" s="67"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="63"/>
     </row>
     <row r="42" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="67"/>
-      <c r="H42" s="67"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="63"/>
     </row>
     <row r="43" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B43" s="65"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="65"/>
-      <c r="F43" s="65"/>
-      <c r="G43" s="67"/>
-      <c r="H43" s="67"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="63"/>
       <c r="I43" s="10"/>
     </row>
     <row r="44" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="65"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="65"/>
-      <c r="G44" s="67"/>
-      <c r="H44" s="67"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="63"/>
+      <c r="H44" s="63"/>
       <c r="I44" s="10"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
@@ -1760,124 +1739,111 @@
       <c r="I50" s="10"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="16"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
+      <c r="A51" s="48"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="48"/>
       <c r="I51" s="10"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="16"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
+      <c r="A52" s="48"/>
+      <c r="B52" s="48"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="48"/>
       <c r="I52" s="10"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="16"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
+      <c r="A53" s="48"/>
+      <c r="B53" s="48"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="48"/>
       <c r="I53" s="10"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="16"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
+      <c r="A54" s="48"/>
+      <c r="B54" s="48"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="48"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="48"/>
       <c r="I54" s="10"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="16"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
+      <c r="A55" s="48"/>
+      <c r="B55" s="48"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="48"/>
+      <c r="H55" s="48"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="16"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
+      <c r="A56" s="48"/>
+      <c r="B56" s="48"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="48"/>
+      <c r="E56" s="48"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="48"/>
+      <c r="H56" s="48"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="16"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="16"/>
+      <c r="A57" s="48"/>
+      <c r="B57" s="48"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="48"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="48"/>
+      <c r="H57" s="48"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="16"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
+      <c r="A58" s="48"/>
+      <c r="B58" s="48"/>
+      <c r="C58" s="48"/>
+      <c r="D58" s="48"/>
+      <c r="E58" s="48"/>
+      <c r="F58" s="48"/>
+      <c r="G58" s="48"/>
+      <c r="H58" s="48"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="16"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
-      <c r="H59" s="16"/>
+      <c r="A59" s="48"/>
+      <c r="B59" s="48"/>
+      <c r="C59" s="48"/>
+      <c r="D59" s="48"/>
+      <c r="E59" s="48"/>
+      <c r="F59" s="48"/>
+      <c r="G59" s="48"/>
+      <c r="H59" s="48"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="16"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="16"/>
+      <c r="A60" s="48"/>
+      <c r="B60" s="48"/>
+      <c r="C60" s="48"/>
+      <c r="D60" s="48"/>
+      <c r="E60" s="48"/>
+      <c r="F60" s="48"/>
+      <c r="G60" s="48"/>
+      <c r="H60" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B19:C21"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="G17:H19"/>
-    <mergeCell ref="G15:H16"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="B2:H7"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="G20:H22"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="B22:C22"/>
     <mergeCell ref="A51:H60"/>
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="B33:H33"/>
@@ -1892,6 +1858,19 @@
     <mergeCell ref="B40:F40"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="G32:H32"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="B2:H7"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="G20:H22"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B19:C21"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="G17:H19"/>
+    <mergeCell ref="G15:H16"/>
+    <mergeCell ref="B15:C16"/>
   </mergeCells>
   <pageMargins left="0.59375" right="0.11811023622047245" top="0.58333333333333337" bottom="0.28125" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/public/templates/opo.xlsx
+++ b/public/templates/opo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Soft\openserv\OpenServer\domains\telegram.gaz\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122458BF-05CA-46AB-8562-EEE878531473}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FDBA57-12EF-466C-AD45-EC685367457A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{77695A3C-5086-43E9-B126-A885D32BCDA9}"/>
   </bookViews>
@@ -438,9 +438,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -451,7 +450,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -460,12 +458,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -485,9 +477,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -504,12 +493,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -528,6 +511,133 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="5"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -537,148 +647,74 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -705,51 +741,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>201490</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>85478</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="6134100" cy="1223772"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Рисунок 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BD5FEA4-B18C-4F95-8E91-C44066881EB8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="201490" y="9567738"/>
-          <a:ext cx="6134100" cy="1223772"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>439185</xdr:colOff>
       <xdr:row>34</xdr:row>
@@ -770,7 +761,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -820,7 +811,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -835,6 +826,50 @@
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>873651</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>82402</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35D00713-359A-4DB6-8A0D-1ECCC015003A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="414130" y="9906000"/>
+          <a:ext cx="6133108" cy="1225402"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1139,10 +1174,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB0B4622-FC68-489E-B7E8-98F35F2BF832}">
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A9" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1156,695 +1191,774 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="A1" s="84"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="106"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="10"/>
+      <c r="A2" s="84"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="106"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="10"/>
+      <c r="A3" s="84"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="106"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="10"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="106"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="10"/>
+      <c r="A5" s="84"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="106"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="10"/>
+      <c r="A6" s="84"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="106"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="10"/>
+      <c r="A7" s="84"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="106"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
+      <c r="A8" s="84"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="106"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
+      <c r="A9" s="84"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="106"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="11"/>
+      <c r="A10" s="85"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="107"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="17"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="17"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="17"/>
-      <c r="C12" s="49" t="s">
+      <c r="A12" s="9"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="17"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13"/>
-      <c r="B14" s="66" t="s">
+      <c r="A14" s="9"/>
+      <c r="B14" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="67"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="68" t="s">
+      <c r="C14" s="59"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="88" t="s">
+      <c r="H14" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="7"/>
+      <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="74" t="s">
+      <c r="A15" s="9"/>
+      <c r="B15" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="86" t="s">
+      <c r="C15" s="48"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="87"/>
-      <c r="I15" s="7"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
-      <c r="B16" s="75"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="85"/>
-      <c r="I16" s="7"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="82" t="s">
+      <c r="A17" s="9"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="83"/>
-      <c r="I17" s="7"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="5"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13"/>
-      <c r="B18" s="69" t="s">
+      <c r="A18" s="9"/>
+      <c r="B18" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="70"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="7"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
-      <c r="B19" s="76" t="s">
+      <c r="A19" s="9"/>
+      <c r="B19" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="77"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="7"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="51" t="s">
+      <c r="A20" s="9"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="52"/>
-      <c r="I20" s="7"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="13"/>
-      <c r="B21" s="80"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="7"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="5"/>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13"/>
-      <c r="B22" s="80" t="s">
+      <c r="A22" s="9"/>
+      <c r="B22" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="81"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="7"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="5"/>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="13"/>
-      <c r="B23" s="71" t="s">
+      <c r="A23" s="9"/>
+      <c r="B23" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="72" t="s">
+      <c r="C23" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="72" t="s">
+      <c r="D23" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="72" t="s">
+      <c r="E23" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="F23" s="71" t="s">
+      <c r="F23" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="G23" s="71" t="s">
+      <c r="G23" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="73" t="s">
+      <c r="H23" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="44"/>
-      <c r="B24" s="35" t="s">
+      <c r="I23" s="108"/>
+    </row>
+    <row r="24" spans="1:9" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="37"/>
+      <c r="B24" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="37" t="s">
+      <c r="D24" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="38" t="s">
+      <c r="E24" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="39" t="s">
+      <c r="F24" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="40" t="s">
+      <c r="G24" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="40" t="s">
+      <c r="H24" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="I24" s="6"/>
-    </row>
-    <row r="25" spans="1:9" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
+      <c r="I24" s="109"/>
+    </row>
+    <row r="25" spans="1:9" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="37"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="98"/>
+      <c r="I25" s="102"/>
     </row>
     <row r="26" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="58" t="s">
+      <c r="B26" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="89" t="s">
+      <c r="C26" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="31"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="98"/>
+      <c r="I26" s="5"/>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="59"/>
-      <c r="C27" s="90" t="s">
+      <c r="B27" s="69"/>
+      <c r="C27" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="98"/>
+      <c r="I27" s="5"/>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="60"/>
-      <c r="C28" s="91" t="s">
+      <c r="B28" s="70"/>
+      <c r="C28" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="31"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="98"/>
+      <c r="I28" s="5"/>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="95"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="95"/>
+      <c r="H29" s="96"/>
+      <c r="I29" s="5"/>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="12"/>
-      <c r="C30" s="14" t="s">
+      <c r="A30" s="9"/>
+      <c r="B30" s="103"/>
+      <c r="C30" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="45"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="92" t="s">
+      <c r="D30" s="81"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="H30" s="93"/>
+      <c r="H30" s="80"/>
+      <c r="I30" s="5"/>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="12"/>
-      <c r="C31" s="14" t="s">
+      <c r="A31" s="9"/>
+      <c r="B31" s="103"/>
+      <c r="C31" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D31" s="41"/>
-      <c r="E31" s="43">
+      <c r="D31" s="34"/>
+      <c r="E31" s="36">
         <v>0</v>
       </c>
-      <c r="F31" s="42"/>
-      <c r="G31" s="94" t="s">
+      <c r="F31" s="35"/>
+      <c r="G31" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="H31" s="95"/>
+      <c r="H31" s="73"/>
+      <c r="I31" s="5"/>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="12"/>
-      <c r="C32" s="14" t="s">
+      <c r="A32" s="9"/>
+      <c r="B32" s="103"/>
+      <c r="C32" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="45"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="92" t="s">
+      <c r="D32" s="81"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="H32" s="93"/>
-    </row>
-    <row r="33" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="61"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-    </row>
-    <row r="34" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="62" t="s">
+      <c r="H32" s="80"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="9"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="97"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="9"/>
+      <c r="B34" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C34" s="62"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-    </row>
-    <row r="35" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="64" t="s">
+      <c r="C34" s="76"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="9"/>
+      <c r="B35" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="63"/>
-      <c r="H35" s="63"/>
-    </row>
-    <row r="36" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="64" t="s">
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="92"/>
+      <c r="H35" s="93"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="9"/>
+      <c r="B36" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="64"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="63"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="65" t="s">
+      <c r="C36" s="77"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="92"/>
+      <c r="H36" s="93"/>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="9"/>
+      <c r="B37" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="65"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="65"/>
-      <c r="G37" s="63"/>
-      <c r="H37" s="63"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="65"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="63"/>
-      <c r="H38" s="63"/>
-    </row>
-    <row r="39" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="64" t="s">
+      <c r="C37" s="78"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="78"/>
+      <c r="F37" s="78"/>
+      <c r="G37" s="92"/>
+      <c r="H37" s="93"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="9"/>
+      <c r="B38" s="78"/>
+      <c r="C38" s="78"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="78"/>
+      <c r="F38" s="78"/>
+      <c r="G38" s="92"/>
+      <c r="H38" s="93"/>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="9"/>
+      <c r="B39" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="64"/>
-      <c r="D39" s="64"/>
-      <c r="E39" s="64"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="63"/>
-      <c r="H39" s="63"/>
-    </row>
-    <row r="40" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="64" t="s">
+      <c r="C39" s="77"/>
+      <c r="D39" s="77"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="92"/>
+      <c r="H39" s="93"/>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="9"/>
+      <c r="B40" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="64"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="63"/>
-      <c r="H40" s="63"/>
-    </row>
-    <row r="41" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="63"/>
-      <c r="H41" s="63"/>
-    </row>
-    <row r="42" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="63"/>
-      <c r="H42" s="63"/>
-    </row>
-    <row r="43" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B43" s="33"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="63"/>
-      <c r="H43" s="63"/>
-      <c r="I43" s="10"/>
-    </row>
-    <row r="44" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="33"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="63"/>
-      <c r="H44" s="63"/>
-      <c r="I44" s="10"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="92"/>
+      <c r="H40" s="93"/>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="9"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="92"/>
+      <c r="H41" s="93"/>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="9"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="92"/>
+      <c r="H42" s="93"/>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="9"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="92"/>
+      <c r="H43" s="93"/>
+      <c r="I43" s="106"/>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="9"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="92"/>
+      <c r="H44" s="93"/>
+      <c r="I44" s="106"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="9"/>
+      <c r="B45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="84"/>
+      <c r="I45" s="106"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="9"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="84"/>
+      <c r="I46" s="106"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="9"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="84"/>
+      <c r="I47" s="106"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="9"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="84"/>
+      <c r="I48" s="106"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
+      <c r="A49" s="9"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="84"/>
+      <c r="I49" s="106"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
+      <c r="A50" s="9"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="84"/>
+      <c r="I50" s="106"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="48"/>
-      <c r="B51" s="48"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="48"/>
-      <c r="E51" s="48"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="48"/>
-      <c r="H51" s="48"/>
-      <c r="I51" s="10"/>
+      <c r="A51" s="84"/>
+      <c r="B51" s="110"/>
+      <c r="C51" s="111"/>
+      <c r="D51" s="111"/>
+      <c r="E51" s="111"/>
+      <c r="F51" s="111"/>
+      <c r="G51" s="111"/>
+      <c r="H51" s="112"/>
+      <c r="I51" s="106"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="48"/>
-      <c r="B52" s="48"/>
-      <c r="C52" s="48"/>
-      <c r="D52" s="48"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="48"/>
-      <c r="H52" s="48"/>
-      <c r="I52" s="10"/>
+      <c r="A52" s="84"/>
+      <c r="B52" s="110"/>
+      <c r="C52" s="111"/>
+      <c r="D52" s="111"/>
+      <c r="E52" s="111"/>
+      <c r="F52" s="111"/>
+      <c r="G52" s="111"/>
+      <c r="H52" s="112"/>
+      <c r="I52" s="106"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="48"/>
-      <c r="B53" s="48"/>
-      <c r="C53" s="48"/>
-      <c r="D53" s="48"/>
-      <c r="E53" s="48"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="48"/>
-      <c r="H53" s="48"/>
-      <c r="I53" s="10"/>
+      <c r="A53" s="84"/>
+      <c r="B53" s="110"/>
+      <c r="C53" s="111"/>
+      <c r="D53" s="111"/>
+      <c r="E53" s="111"/>
+      <c r="F53" s="111"/>
+      <c r="G53" s="111"/>
+      <c r="H53" s="112"/>
+      <c r="I53" s="106"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="48"/>
-      <c r="B54" s="48"/>
-      <c r="C54" s="48"/>
-      <c r="D54" s="48"/>
-      <c r="E54" s="48"/>
-      <c r="F54" s="48"/>
-      <c r="G54" s="48"/>
-      <c r="H54" s="48"/>
-      <c r="I54" s="10"/>
+      <c r="A54" s="84"/>
+      <c r="B54" s="110"/>
+      <c r="C54" s="111"/>
+      <c r="D54" s="111"/>
+      <c r="E54" s="111"/>
+      <c r="F54" s="111"/>
+      <c r="G54" s="111"/>
+      <c r="H54" s="112"/>
+      <c r="I54" s="106"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="48"/>
-      <c r="B55" s="48"/>
-      <c r="C55" s="48"/>
-      <c r="D55" s="48"/>
-      <c r="E55" s="48"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="48"/>
-      <c r="H55" s="48"/>
+      <c r="A55" s="84"/>
+      <c r="B55" s="110"/>
+      <c r="C55" s="111"/>
+      <c r="D55" s="111"/>
+      <c r="E55" s="111"/>
+      <c r="F55" s="111"/>
+      <c r="G55" s="111"/>
+      <c r="H55" s="112"/>
+      <c r="I55" s="5"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="48"/>
-      <c r="B56" s="48"/>
-      <c r="C56" s="48"/>
-      <c r="D56" s="48"/>
-      <c r="E56" s="48"/>
-      <c r="F56" s="48"/>
-      <c r="G56" s="48"/>
-      <c r="H56" s="48"/>
+      <c r="A56" s="84"/>
+      <c r="B56" s="110"/>
+      <c r="C56" s="111"/>
+      <c r="D56" s="111"/>
+      <c r="E56" s="111"/>
+      <c r="F56" s="111"/>
+      <c r="G56" s="111"/>
+      <c r="H56" s="112"/>
+      <c r="I56" s="5"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="48"/>
-      <c r="B57" s="48"/>
-      <c r="C57" s="48"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="48"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="48"/>
+      <c r="A57" s="84"/>
+      <c r="B57" s="110"/>
+      <c r="C57" s="111"/>
+      <c r="D57" s="111"/>
+      <c r="E57" s="111"/>
+      <c r="F57" s="111"/>
+      <c r="G57" s="111"/>
+      <c r="H57" s="112"/>
+      <c r="I57" s="5"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="48"/>
-      <c r="B58" s="48"/>
-      <c r="C58" s="48"/>
-      <c r="D58" s="48"/>
-      <c r="E58" s="48"/>
-      <c r="F58" s="48"/>
-      <c r="G58" s="48"/>
-      <c r="H58" s="48"/>
+      <c r="A58" s="84"/>
+      <c r="B58" s="110"/>
+      <c r="C58" s="111"/>
+      <c r="D58" s="111"/>
+      <c r="E58" s="111"/>
+      <c r="F58" s="111"/>
+      <c r="G58" s="111"/>
+      <c r="H58" s="112"/>
+      <c r="I58" s="5"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="48"/>
-      <c r="B59" s="48"/>
-      <c r="C59" s="48"/>
-      <c r="D59" s="48"/>
-      <c r="E59" s="48"/>
-      <c r="F59" s="48"/>
-      <c r="G59" s="48"/>
-      <c r="H59" s="48"/>
+      <c r="A59" s="84"/>
+      <c r="B59" s="110"/>
+      <c r="C59" s="111"/>
+      <c r="D59" s="111"/>
+      <c r="E59" s="111"/>
+      <c r="F59" s="111"/>
+      <c r="G59" s="111"/>
+      <c r="H59" s="112"/>
+      <c r="I59" s="5"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="48"/>
-      <c r="B60" s="48"/>
-      <c r="C60" s="48"/>
-      <c r="D60" s="48"/>
-      <c r="E60" s="48"/>
-      <c r="F60" s="48"/>
-      <c r="G60" s="48"/>
-      <c r="H60" s="48"/>
+      <c r="A60" s="84"/>
+      <c r="B60" s="110"/>
+      <c r="C60" s="110"/>
+      <c r="D60" s="110"/>
+      <c r="E60" s="110"/>
+      <c r="F60" s="110"/>
+      <c r="G60" s="110"/>
+      <c r="H60" s="84"/>
+      <c r="I60" s="5"/>
+    </row>
+    <row r="61" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="9"/>
+      <c r="B61" s="101"/>
+      <c r="C61" s="99"/>
+      <c r="D61" s="99"/>
+      <c r="E61" s="99"/>
+      <c r="F61" s="99"/>
+      <c r="G61" s="99"/>
+      <c r="H61" s="100"/>
+      <c r="I61" s="5"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="114"/>
+      <c r="B62" s="114"/>
+      <c r="C62" s="114"/>
+      <c r="H62" s="115"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H63" s="114"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H64" s="114"/>
+    </row>
+    <row r="65" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H65" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A51:H60"/>
+    <mergeCell ref="C51:H59"/>
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="B33:H33"/>
     <mergeCell ref="G31:H31"/>
